--- a/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
+++ b/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.139508156605682</v>
+        <v>0.8604918433943179</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.958769250206601</v>
+        <v>0.041230749793399</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.869455939568395</v>
+        <v>0.130544060431605</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.280153459551614</v>
+        <v>0.719846540448386</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2995,46 +2995,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.103643103452642</v>
+        <v>9.63969274766455e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.192307692307692</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08653846153846149</v>
+        <v>0.701986754966887</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.007</v>
+        <v>4.25</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.344575471698113</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.209785444937409</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0001016198672175</v>
+        <v>0.534518640582045</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>8.107658157602661</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.703414336898151</v>
+        <v>5.09631580269954e-08</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0048309178743961</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H30" t="n">
-        <v>0.560386473429952</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>76</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.432040485653142</v>
+        <v>-0.185841487279843</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.98993219174249</v>
+        <v>-0.240953077661482</v>
       </c>
       <c r="M30" t="n">
-        <v>0.914353995392268</v>
+        <v>-0.132192199695019</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.568474323227819</v>
+        <v>-6.88301804740161</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.81237615351461</v>
+        <v>0.366500402991836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.908629441624365</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.126903553299492</v>
+        <v>0.841176470588235</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>11.105</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.005997536945813</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0299112829845313</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0188151194924601</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.0540075366574789</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.006999020064237</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.197674418604651</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.08139534883720929</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.726309432654878</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0240384615384615</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.533653846153846</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
       <c r="J32" t="n">
-        <v>0.067</v>
+        <v>0.007</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.000332347588717</v>
+        <v>0.0001072381528206</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0012359827802793</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0003948501595958</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.496041177189575</v>
+        <v>1.53197361172355</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3374,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0359229613776374</v>
+        <v>0.857059342311852</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.745192307692308</v>
+        <v>0.604651162790698</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.3</v>
+        <v>76</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0150034230944774</v>
+        <v>-1.39408396946565</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0007563573963091</v>
+        <v>-2.98980706907133</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0306087566132263</v>
+        <v>0.726236691211291</v>
       </c>
       <c r="N33" t="n">
-        <v>1.15410946880595</v>
+        <v>-1.8343210124548</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.231216363225238</v>
+        <v>0.894211164708593</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.135802469135802</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.57</v>
+        <v>0.005</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0185820503515653</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0614507955048734</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0218128540514643</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.26000883360795</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3527,7 +3527,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3537,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.59675202974633</v>
+        <v>0.106423046983182</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.535031847133758</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.0828025477707006</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>123</v>
+        <v>0.001</v>
       </c>
       <c r="K35" t="n">
-        <v>1.80417759019444</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-8.53788008724014</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.02689440627225</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.46681104893857</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3585,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3614,7 +3618,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3624,14 +3632,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3639,31 +3647,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.59675202974633</v>
+        <v>0.171502524924794</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.10828025477707</v>
       </c>
       <c r="H36" t="n">
+        <v>0.630573248407643</v>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
       <c r="J36" t="n">
-        <v>6.15</v>
+        <v>0.052</v>
       </c>
       <c r="K36" t="n">
-        <v>0.216788852916582</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.27082961976238</v>
+        <v>-0.0002494225625332</v>
       </c>
       <c r="M36" t="n">
-        <v>1.10409606466574</v>
+        <v>0.0016757102269854</v>
       </c>
       <c r="N36" t="n">
-        <v>3.52502199864361</v>
+        <v>1.15337248957939</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3672,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3701,7 +3709,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3726,31 +3738,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.993499988901355</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.627218934911243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0001121086556169</v>
+        <v>0.0249260691537762</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0187128172607961</v>
+        <v>0.008521471004617601</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0160588383469552</v>
+        <v>0.0348054237401523</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0200194027887398</v>
+        <v>0.325830969330408</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,46 +3810,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6061921166488971</v>
+        <v>0.5485631505426291</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0116279069767442</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9</v>
+        <v>0.587209302325581</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>122</v>
+        <v>0.0645</v>
       </c>
       <c r="K38" t="n">
-        <v>0.251896551724138</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.08063580193662</v>
+        <v>-0.001425644028103</v>
       </c>
       <c r="M38" t="n">
-        <v>1.82277253611372</v>
+        <v>0.0009982385206341001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.206472583380441</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3875,7 +3887,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3885,46 +3901,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.894751149972331</v>
+        <v>0.554688319127624</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.401162790697674</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.63</v>
+        <v>0.164</v>
       </c>
       <c r="K39" t="n">
-        <v>0.123000856164384</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0557145216825392</v>
+        <v>-0.0022290102328931</v>
       </c>
       <c r="M39" t="n">
-        <v>0.252783089310743</v>
+        <v>0.001766701370125</v>
       </c>
       <c r="N39" t="n">
-        <v>2.18473989634784</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3933,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3962,7 +3978,1257 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0032988819074237</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0174418604651163</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.209302325581395</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0002635281385281</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.78428831511909e-05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0004348214285714</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.88234384662956</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.271175176251553</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.819767441860465</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0060206043956044</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0137402933168334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.031205774661301</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.456106393606394</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.103643103452642</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.08653846153846149</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0001016198672175</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.703414336898151</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0048309178743961</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.560386473429952</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>76</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.432040485653142</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-1.98993219174249</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.914353995392268</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.568474323227819</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.81237615351461</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.908629441624365</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.126903553299492</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.726309432654878</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0240384615384615</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.533653846153846</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.000332347588717</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0012359827802793</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0003948501595958</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.496041177189575</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0359229613776374</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.745192307692308</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0150034230944774</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0007563573963091</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0306087566132263</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.15410946880595</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.0185820503515653</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0614507955048734</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0218128540514643</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-3.26000883360795</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>123</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.80417759019444</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-8.53788008724014</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.02689440627225</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.46681104893857</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.216788852916582</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.27082961976238</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.10409606466574</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.52502199864361</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0001121086556169</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0187128172607961</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0160588383469552</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0200194027887398</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6061921166488971</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>122</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.251896551724138</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-2.08063580193662</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.82277253611372</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.206472583380441</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.123000856164384</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.0557145216825392</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.252783089310743</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.18473989634784</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tokomaru River at Horseshoe bend</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.044599291324011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>124.415</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.920830696202532</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-2.03324600660379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.0344202466489244</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.740128357675949</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1814087</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5515091</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_13c</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
+++ b/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.37209226751575</v>
+        <v>0.9834118648867129</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>0.816326530612245</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.180340684660961</v>
+        <v>-1.15714773614364</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7692259793541431</v>
+        <v>-2.83718693686638</v>
       </c>
       <c r="M2" t="n">
-        <v>1.63058035714286</v>
+        <v>-0.281394223852033</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7744720717071</v>
+        <v>-19.285795602394</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8604918433943179</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.12</v>
+        <v>11.1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0598990790820322</v>
+        <v>-0.0564431662087909</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0313428146420904</v>
+        <v>-0.142129982550821</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125493932408345</v>
+        <v>0.0396937092783696</v>
       </c>
       <c r="N3" t="n">
-        <v>0.538660783111801</v>
+        <v>-0.50849699287199</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.307851971750446</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.271186440677966</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0002451961580964</v>
+        <v>-0.0002927434485882</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000668956043956</v>
+        <v>0.0003052326342591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.786360546914012</v>
+        <v>0.5857034623906771</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.728813559322034</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>-6.48887362637363</v>
+        <v>-1.45801526300133</v>
       </c>
       <c r="L5" t="n">
-        <v>-18.3395175087227</v>
+        <v>-10.5349890641934</v>
       </c>
       <c r="M5" t="n">
-        <v>5.59372431179313</v>
+        <v>9.21147008900846</v>
       </c>
       <c r="N5" t="n">
-        <v>-8.111092032967029</v>
+        <v>-1.71531207411921</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
+          <t>&lt; 3 unique values</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.942307692307692</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.134615384615385</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.176287825719297</v>
+        <v>0.967748593843998</v>
       </c>
       <c r="G7" t="n">
-        <v>0.542372881355932</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11864406779661</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.096383983600694</v>
+        <v>0.212428317639825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H8" t="n">
-        <v>0.728813559322034</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0033626586759105</v>
+        <v>0.0031822935678336</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0018372649493038</v>
+        <v>-0.0028969059347514</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0077600086049173</v>
+        <v>0.0079832125669863</v>
       </c>
       <c r="N8" t="n">
-        <v>5.33755345382628</v>
+        <v>5.21687470136662</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.041230749793399</v>
+        <v>0.014680822750202</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.796610169491525</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>7.72</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0776000266108125</v>
+        <v>-0.0598225659690627</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.126365144802663</v>
+        <v>-0.112223907545985</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0088599563650106</v>
+        <v>-0.0147602295424837</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.0051816918499</v>
+        <v>-0.77490370426247</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0728642666010202</v>
+        <v>0.0952151319127621</v>
       </c>
       <c r="G10" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.76271186440678</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1300,16 +1300,16 @@
         <v>0.065</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0033781880126452</v>
+        <v>0.0024906381212772</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00030174905164</v>
+        <v>-0.0012978561321042</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0098023799433685</v>
+        <v>0.009323743108648299</v>
       </c>
       <c r="N10" t="n">
-        <v>5.19721232714653</v>
+        <v>3.83175095581111</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.887941520594971</v>
+        <v>0.513071997034839</v>
       </c>
       <c r="G11" t="n">
-        <v>0.508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.271186440677966</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0093135366465768</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,46 +1452,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.0722130268335657</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.457627118644068</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.16</v>
+        <v>0.015</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.009913966854603501</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009885985074864099</v>
+        <v>0.0014307626559955</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.99835796387521</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.187521811779306</v>
+        <v>0.932894745068838</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.406779661016949</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.015</v>
+        <v>1.31</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004981276242554</v>
+        <v>-0.125948275862069</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0003530175615985</v>
+        <v>-0.282945977887272</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0010341841325562</v>
+        <v>0.009215594800207399</v>
       </c>
       <c r="N13" t="n">
-        <v>3.32085082836962</v>
+        <v>-9.614372203211371</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.807382072798153</v>
+        <v>0.717224303009192</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.932203389830508</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.62</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.148006524725275</v>
+        <v>-0.0465059957530083</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.272280858286002</v>
+        <v>-0.274372989666337</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0547253748864831</v>
+        <v>0.0838220254729822</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.13620522995522</v>
+        <v>-0.949101954143026</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1725,46 +1725,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0030807149678649</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0114942528735632</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.793103448275862</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.317072416706201</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.95</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0668956043956045</v>
+        <v>-0.149710669077758</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.128690836450263</v>
+        <v>-0.235852105265886</v>
       </c>
       <c r="M15" t="n">
-        <v>0.31379896716858</v>
+        <v>-0.0663055885793097</v>
       </c>
       <c r="N15" t="n">
-        <v>1.35142635142635</v>
+        <v>-6.23794454490657</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.77416665100239e-05</v>
+        <v>0.087140198194679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.010989010989011</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.802197802197802</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.496</v>
+        <v>11.09</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.190824489795918</v>
+        <v>-0.0279885057471262</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.265881455060047</v>
+        <v>-0.0623260535357811</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.111872346908465</v>
+        <v>0.009995804088098401</v>
       </c>
       <c r="N16" t="n">
-        <v>-7.64521193092622</v>
+        <v>-0.252376066250011</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.932551214035797</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.109243697478992</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.130544060431605</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.873949579831933</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>11.11</v>
+        <v>0.007</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0239901477832511</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0618556251798846</v>
+        <v>-0.0003069327731092</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0133350128328791</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.215932923341594</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1998,43 +1998,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.306211636100388</v>
+        <v>0.48955323895127</v>
       </c>
       <c r="G18" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.117647058823529</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007</v>
+        <v>73</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-2.43398185015236</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002271759700824</v>
+        <v>4.19502732844557</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2089,43 +2089,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.48955323895127</v>
+        <v>0.912505343477433</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5630252100840339</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>73</v>
+        <v>0.005</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.82139919842243</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.95597607827321</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,23 +2191,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.85252163132912</v>
+        <v>0.907792495820013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.936936936936937</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0990990990990991</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,46 +2271,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.811093093063737</v>
+        <v>0.0005178917880118001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.428571428571429</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="H21" t="n">
-        <v>0.100840336134454</v>
+        <v>0.65546218487395</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002</v>
+        <v>0.049</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0025890130861504</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0011378746541221</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0042296631494848</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>5.28370017581733</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2373,35 +2373,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0007011426630903</v>
+        <v>0.479135075505421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.680672268907563</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.049</v>
+        <v>7.68</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0025839228662711</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00101092436407</v>
+        <v>-0.0149690856229086</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0044643781123037</v>
+        <v>0.0199392226216898</v>
       </c>
       <c r="N22" t="n">
-        <v>5.27331197198186</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,11 +2439,7 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2453,7 +2449,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,35 +2460,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.719846540448386</v>
+        <v>0.0005308542007464</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H23" t="n">
-        <v>0.644067796610169</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>7.7</v>
+        <v>0.055</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0076004079714792</v>
+        <v>0.0030103021978022</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0112395689485055</v>
+        <v>0.0014864506609248</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0257956038005707</v>
+        <v>0.0045527581202641</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0987065970321974</v>
+        <v>5.47327672327672</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2497,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,7 +2526,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2555,31 +2555,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0014074056988739</v>
+        <v>0.0230121759028622</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.605042016806723</v>
+        <v>0.403361344537815</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.055</v>
+        <v>0.16</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0030219249862107</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0011629658760217</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0047435064935065</v>
+        <v>0.0059975369458128</v>
       </c>
       <c r="N24" t="n">
-        <v>5.49440906583764</v>
+        <v>2.07717242948135</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2642,35 +2642,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.858902289497258</v>
+        <v>0.0445315411229505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.394957983193277</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.184873949579832</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0002070578231292</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0004700772200772</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.47898445092322</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.06734480233101579</v>
+        <v>0.265317840615893</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.428571428571429</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.16</v>
+        <v>1.33</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002484693877551</v>
+        <v>0.020013698630137</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.01996472802751</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0055186379511914</v>
+        <v>0.0516433504026853</v>
       </c>
       <c r="N26" t="n">
-        <v>1.55293367346939</v>
+        <v>1.50478937068699</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2813,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0003475072335066</v>
+        <v>0.0006147107184984</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.235294117647059</v>
+        <v>0.68944099378882</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.014</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004922506738544</v>
+        <v>0.220613128229178</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00024033910804</v>
+        <v>0.0893532148527897</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0007385212412588</v>
+        <v>0.345382451848627</v>
       </c>
       <c r="N27" t="n">
-        <v>3.51607624181748</v>
+        <v>5.51532820572945</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0754347260569673</v>
+        <v>8.73742910245667e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.857142857142857</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.32</v>
+        <v>2.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0325334018499486</v>
+        <v>-0.172153050595238</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0083284208125084</v>
+        <v>-0.221849418899509</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0824628879589188</v>
+        <v>-0.119057866840396</v>
       </c>
       <c r="N28" t="n">
-        <v>2.46465165529914</v>
+        <v>-6.37603891093474</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9.63969274766455e-05</v>
+        <v>0.134964247034332</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.701986754966887</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.25</v>
+        <v>11.115</v>
       </c>
       <c r="K29" t="n">
-        <v>0.344575471698113</v>
+        <v>-0.0177591521468493</v>
       </c>
       <c r="L29" t="n">
-        <v>0.209785444937409</v>
+        <v>-0.0370808505439299</v>
       </c>
       <c r="M29" t="n">
-        <v>0.534518640582045</v>
+        <v>0.0099944316624346</v>
       </c>
       <c r="N29" t="n">
-        <v>8.107658157602661</v>
+        <v>-0.159776447564996</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3097,35 +3097,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.09631580269954e-08</v>
+        <v>0.0567700328813669</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.191011235955056</v>
       </c>
       <c r="H30" t="n">
-        <v>0.673913043478261</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>0.007</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.185841487279843</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.240953077661482</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.132192199695019</v>
+        <v>0.0001704061668639</v>
       </c>
       <c r="N30" t="n">
-        <v>-6.88301804740161</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3188,35 +3188,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.366500402991836</v>
+        <v>0.528951445563981</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.841176470588235</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.105</v>
+        <v>74.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.005997536945813</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0299112829845313</v>
+        <v>-1.86506808856772</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0188151194924601</v>
+        <v>1.99154852780807</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0540075366574789</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3279,35 +3279,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.006999020064237</v>
+        <v>0.926608930218729</v>
       </c>
       <c r="G32" t="n">
-        <v>0.197674418604651</v>
+        <v>0.905882352941176</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08139534883720929</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0001072381528206</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53197361172355</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.857059342311852</v>
+        <v>0.502921589832579</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.568047337278107</v>
       </c>
       <c r="H33" t="n">
-        <v>0.604651162790698</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>76</v>
+        <v>0.001</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.39408396946565</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.98980706907133</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.726236691211291</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.8343210124548</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.894211164708593</v>
+        <v>0.201483913580963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.907407407407407</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="H34" t="n">
-        <v>0.135802469135802</v>
+        <v>0.6213017751479289</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.052</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0003664830448779</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0002493320732368</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0014923109238866</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.704775086303812</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3552,35 +3552,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.106423046983182</v>
+        <v>0.999610098498792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.535031847133758</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0828025477707006</v>
+        <v>0.598870056497175</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001</v>
+        <v>7.65</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0223706606176303</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0115069955986026</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0326929142836099</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.292426936178174</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,11 +3618,7 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3632,7 +3628,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3647,31 +3643,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.171502524924794</v>
+        <v>0.569186720939443</v>
       </c>
       <c r="G36" t="n">
-        <v>0.10828025477707</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H36" t="n">
-        <v>0.630573248407643</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.052</v>
+        <v>0.065</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005997536945812</v>
+        <v>-8.32849456730611e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0002494225625332</v>
+        <v>-0.0014403750858379</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0016757102269854</v>
+        <v>0.0008547095867177</v>
       </c>
       <c r="N36" t="n">
-        <v>1.15337248957939</v>
+        <v>-0.128130685650863</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3676,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,35 +3730,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.993499988901355</v>
+        <v>0.652891604083369</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.627218934911243</v>
+        <v>0.393258426966292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.65</v>
+        <v>0.168</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0249260691537762</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.008521471004617601</v>
+        <v>-0.0023033818633573</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0348054237401523</v>
+        <v>0.001333503135865</v>
       </c>
       <c r="N37" t="n">
-        <v>0.325830969330408</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3800,7 +3796,11 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3810,46 +3810,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5485631505426291</v>
+        <v>0.0164031491351788</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0116279069767442</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H38" t="n">
-        <v>0.587209302325581</v>
+        <v>0.207865168539326</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0645</v>
+        <v>0.014</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.0001914809960681</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.001425644028103</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0009982385206341001</v>
+        <v>0.0003654736906847</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.3677214004868</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.554688319127624</v>
+        <v>0.290646366637833</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.401162790697674</v>
+        <v>0.814606741573034</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.164</v>
+        <v>1.325</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.0060090706707086</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0022290102328931</v>
+        <v>-0.0127967960507469</v>
       </c>
       <c r="M39" t="n">
-        <v>0.001766701370125</v>
+        <v>0.0297409623644199</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.45351476760065</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3992,46 +3992,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0032988819074237</v>
+        <v>0.663843186239484</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="H40" t="n">
-        <v>0.209302325581395</v>
+        <v>0.08653846153846149</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0002635281385281</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>7.78428831511909e-05</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0004348214285714</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.88234384662956</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4083,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4098,31 +4098,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.271175176251553</v>
+        <v>0.914718276685987</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0048309178743961</v>
       </c>
       <c r="H41" t="n">
-        <v>0.819767441860465</v>
+        <v>0.584541062801932</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.32</v>
+        <v>80</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0060206043956044</v>
+        <v>-1.45103464156598</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0137402933168334</v>
+        <v>-2.90233332658803</v>
       </c>
       <c r="M41" t="n">
-        <v>0.031205774661301</v>
+        <v>0.248136268938273</v>
       </c>
       <c r="N41" t="n">
-        <v>0.456106393606394</v>
+        <v>-1.81379330195747</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4185,23 +4185,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.103643103452642</v>
+        <v>0.917947588848154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.192307692307692</v>
+        <v>0.9035532994923861</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08653846153846149</v>
+        <v>0.131979695431472</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0001016198672175</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.703414336898151</v>
+        <v>0.889669454393755</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0048309178743961</v>
+        <v>0.0144230769230769</v>
       </c>
       <c r="H43" t="n">
-        <v>0.560386473429952</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>76</v>
+        <v>0.06675</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.432040485653142</v>
+        <v>-0.000600904853304</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.98993219174249</v>
+        <v>-0.0017477917398598</v>
       </c>
       <c r="M43" t="n">
-        <v>0.914353995392268</v>
+        <v>0.000227429747719</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.568474323227819</v>
+        <v>-0.900231989968667</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4356,46 +4356,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.81237615351461</v>
+        <v>0.100110738129019</v>
       </c>
       <c r="G44" t="n">
-        <v>0.908629441624365</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.126903553299492</v>
+        <v>0.778846153846154</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005</v>
+        <v>1.295</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.012901295133438</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-0.0041234499171085</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.0285929900895894</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.996239006443089</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4447,46 +4447,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.726309432654878</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0240384615384615</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.533653846153846</v>
-      </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.067</v>
+        <v>0.57</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.000332347588717</v>
+        <v>0.0086406822344322</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0012359827802793</v>
+        <v>-0.0300424677764143</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0003948501595958</v>
+        <v>0.0268311117826919</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.496041177189575</v>
+        <v>1.51590916393548</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4524,11 +4524,7 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,46 +4534,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0359229613776374</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.745192307692308</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.3</v>
+        <v>123</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0150034230944774</v>
+        <v>2.09835741750116</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0007563573963091</v>
+        <v>-5.3005245521036</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0306087566132263</v>
+        <v>5.02689440627225</v>
       </c>
       <c r="N46" t="n">
-        <v>1.15410946880595</v>
+        <v>1.70598164024485</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4582,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4615,11 +4611,7 @@
           <t>Mana_13c</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4629,7 +4621,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4644,7 +4636,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.231216363225238</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4656,19 +4648,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.57</v>
+        <v>6.023</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0185820503515653</v>
+        <v>0.252661987155111</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0614507955048734</v>
+        <v>-0.812275448935208</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0218128540514643</v>
+        <v>1.10409606466574</v>
       </c>
       <c r="N47" t="n">
-        <v>-3.26000883360795</v>
+        <v>4.19495246812403</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4677,7 +4669,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4716,11 +4708,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4731,7 +4723,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.59675202974633</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4743,19 +4735,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>123</v>
+        <v>0.5715</v>
       </c>
       <c r="K48" t="n">
-        <v>1.80417759019444</v>
+        <v>-0.0003299457994579</v>
       </c>
       <c r="L48" t="n">
-        <v>-8.53788008724014</v>
+        <v>-0.0113376902670436</v>
       </c>
       <c r="M48" t="n">
-        <v>5.02689440627225</v>
+        <v>0.017169189177875</v>
       </c>
       <c r="N48" t="n">
-        <v>1.46681104893857</v>
+        <v>-0.0577332982428687</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4803,11 +4795,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4818,31 +4810,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.59675202974633</v>
+        <v>0.911016287015968</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.15</v>
+        <v>122</v>
       </c>
       <c r="K49" t="n">
-        <v>0.216788852916582</v>
+        <v>1.36236105675147</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.27082961976238</v>
+        <v>-0.452151278077513</v>
       </c>
       <c r="M49" t="n">
-        <v>1.10409606466574</v>
+        <v>2.10828343699316</v>
       </c>
       <c r="N49" t="n">
-        <v>3.52502199864361</v>
+        <v>1.11668939077989</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4851,7 +4843,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4890,7 +4882,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4905,7 +4897,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4917,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.646</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001121086556169</v>
+        <v>0.132971198156682</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0187128172607961</v>
+        <v>-0.0170063289392205</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0160588383469552</v>
+        <v>0.260837556779276</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0200194027887398</v>
+        <v>2.35513988942051</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4938,7 +4930,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4977,11 +4969,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4992,31 +4984,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.6061921166488971</v>
+        <v>0.689150547815172</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>122</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.251896551724138</v>
+        <v>0.0026331101956745</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.08063580193662</v>
+        <v>-0.0072783421573321</v>
       </c>
       <c r="M51" t="n">
-        <v>1.82277253611372</v>
+        <v>0.0146553057639351</v>
       </c>
       <c r="N51" t="n">
-        <v>0.206472583380441</v>
+        <v>0.470198249227598</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5025,7 +5017,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5064,11 +5056,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5079,31 +5071,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.894751149972331</v>
+        <v>0.062271140790943</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.63</v>
+        <v>123.2</v>
       </c>
       <c r="K52" t="n">
-        <v>0.123000856164384</v>
+        <v>-0.760452517527087</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0557145216825392</v>
+        <v>-1.63214167406627</v>
       </c>
       <c r="M52" t="n">
-        <v>0.252783089310743</v>
+        <v>0.0028511676554901</v>
       </c>
       <c r="N52" t="n">
-        <v>2.18473989634784</v>
+        <v>-0.617250420070688</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5112,7 +5104,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5151,7 +5143,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5166,31 +5158,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.044599291324011</v>
+        <v>0.778289298567959</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>124.415</v>
+        <v>5.72</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.920830696202532</v>
+        <v>0.0373976109215018</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.03324600660379</v>
+        <v>-0.0772726299842758</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0344202466489244</v>
+        <v>0.115244113375894</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.740128357675949</v>
+        <v>0.653804386739542</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5199,7 +5191,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">

--- a/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
+++ b/trend_results/Rivers/TokomaruRiveratHorseshoebend_9ff76a430b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="72">
   <si>
     <t>site name</t>
   </si>
@@ -157,40 +157,46 @@
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -581,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,31 +681,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.9834118648867129</v>
+        <v>0.953886731375606</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.816326530612245</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="K2">
-        <v>-1.15714773614364</v>
+        <v>-1.11766275646644</v>
       </c>
       <c r="L2">
-        <v>-2.83718693686638</v>
+        <v>-2.42879850664235</v>
       </c>
       <c r="M2">
-        <v>-0.281394223852033</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-19.285795602394</v>
+        <v>-23.7800586482221</v>
       </c>
       <c r="O2" t="s">
         <v>45</v>
@@ -714,19 +720,19 @@
         <v>5515091</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -746,13 +752,13 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.174072312476531</v>
+        <v>0.056718190418091</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.915254237288136</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -761,16 +767,16 @@
         <v>11.1</v>
       </c>
       <c r="K3">
-        <v>-0.0564431662087909</v>
+        <v>-0.07525755494505471</v>
       </c>
       <c r="L3">
-        <v>-0.142129982550821</v>
+        <v>-0.180088248797445</v>
       </c>
       <c r="M3">
-        <v>0.0396937092783696</v>
+        <v>-0.0028928801353341</v>
       </c>
       <c r="N3">
-        <v>-0.50849699287199</v>
+        <v>-0.677995990495988</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
@@ -785,19 +791,19 @@
         <v>5515091</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -814,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.0416628132909014</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -832,16 +838,16 @@
         <v>0.006</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0002790297937356</v>
       </c>
       <c r="L4">
-        <v>-0.0002927434485882</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0003052326342591</v>
+        <v>0.0006435583295774</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.65049656226127</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -856,19 +862,19 @@
         <v>5515091</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -885,40 +891,40 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.5857034623906771</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.796610169491525</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>108.8</v>
       </c>
       <c r="K5">
-        <v>-1.45801526300133</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-10.5349890641934</v>
+        <v>-17.4865960680875</v>
       </c>
       <c r="M5">
-        <v>9.21147008900846</v>
+        <v>6.75858991779093</v>
       </c>
       <c r="N5">
-        <v>-1.71531207411921</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1814087</v>
@@ -927,19 +933,19 @@
         <v>5515091</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -959,19 +965,19 @@
         <v>42</v>
       </c>
       <c r="G6">
-        <v>0.962962962962963</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H6">
-        <v>0.0740740740740741</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>1814087</v>
@@ -980,19 +986,19 @@
         <v>5515091</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,13 +1018,13 @@
         <v>43</v>
       </c>
       <c r="F7">
-        <v>0.967748593843998</v>
+        <v>0.999829179794361</v>
       </c>
       <c r="G7">
-        <v>0.610169491525424</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="H7">
-        <v>0.101694915254237</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1042,7 +1048,7 @@
         <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1814087</v>
@@ -1051,19 +1057,19 @@
         <v>5515091</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,40 +1086,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.212428317639825</v>
+        <v>0.965137315408244</v>
       </c>
       <c r="G8">
-        <v>0.101694915254237</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H8">
-        <v>0.745762711864407</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
       <c r="K8">
-        <v>0.0031822935678336</v>
+        <v>-0.0049852138307552</v>
       </c>
       <c r="L8">
-        <v>-0.0028969059347514</v>
+        <v>-0.010671366208204</v>
       </c>
       <c r="M8">
-        <v>0.0079832125669863</v>
+        <v>-0.0004438695502629</v>
       </c>
       <c r="N8">
-        <v>5.21687470136662</v>
+        <v>-9.58694967452929</v>
       </c>
       <c r="O8" t="s">
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1814087</v>
@@ -1122,19 +1128,19 @@
         <v>5515091</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.014680822750202</v>
+        <v>0.595627575350285</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1166,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="K9">
-        <v>-0.0598225659690627</v>
+        <v>0.0074897470950103</v>
       </c>
       <c r="L9">
-        <v>-0.112223907545985</v>
+        <v>-0.0397967475384377</v>
       </c>
       <c r="M9">
-        <v>-0.0147602295424837</v>
+        <v>0.0597678248196649</v>
       </c>
       <c r="N9">
-        <v>-0.77490370426247</v>
+        <v>0.0975227486329468</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>1814087</v>
@@ -1193,16 +1199,16 @@
         <v>5515091</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,37 +1228,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0952151319127621</v>
+        <v>0.788797975832876</v>
       </c>
       <c r="G10">
         <v>0.0169491525423729</v>
       </c>
       <c r="H10">
-        <v>0.813559322033898</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.065</v>
+        <v>0.0605</v>
       </c>
       <c r="K10">
-        <v>0.0024906381212772</v>
+        <v>-0.0027594436813186</v>
       </c>
       <c r="L10">
-        <v>-0.0012978561321042</v>
+        <v>-0.008472893314849799</v>
       </c>
       <c r="M10">
-        <v>0.009323743108648299</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N10">
-        <v>3.83175095581111</v>
+        <v>-4.56106393606394</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10">
         <v>1814087</v>
@@ -1261,19 +1267,19 @@
         <v>5515091</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,40 +1296,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.513071997034839</v>
+        <v>0.8154668967616781</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.474576271186441</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.0045770676691729</v>
       </c>
       <c r="L11">
-        <v>-0.0100343406593407</v>
+        <v>-0.0141023166023166</v>
       </c>
       <c r="M11">
-        <v>0.0093135366465768</v>
+        <v>0.003614183583993</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-2.69239274657231</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1814087</v>
@@ -1332,19 +1338,19 @@
         <v>5515091</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,40 +1367,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.0722130268335657</v>
+        <v>0.593498553107362</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.389830508474576</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K12">
-        <v>0.0005997536945812</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0008720486907154</v>
       </c>
       <c r="M12">
-        <v>0.0014307626559955</v>
+        <v>0.0004348067890218</v>
       </c>
       <c r="N12">
-        <v>3.99835796387521</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1814087</v>
@@ -1403,19 +1409,19 @@
         <v>5515091</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,37 +1441,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.932894745068838</v>
+        <v>0.999424214930495</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.915254237288136</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="K13">
-        <v>-0.125948275862069</v>
+        <v>-0.259042553191489</v>
       </c>
       <c r="L13">
-        <v>-0.282945977887272</v>
+        <v>-0.422774785493341</v>
       </c>
       <c r="M13">
-        <v>0.009215594800207399</v>
+        <v>-0.127507710014113</v>
       </c>
       <c r="N13">
-        <v>-9.614372203211371</v>
+        <v>-20.5589327929753</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1814087</v>
@@ -1474,19 +1480,19 @@
         <v>5515091</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1512,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.717224303009192</v>
+        <v>0.423552276802895</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.719626168224299</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K14">
-        <v>-0.0465059957530083</v>
+        <v>0.0124829118250172</v>
       </c>
       <c r="L14">
-        <v>-0.274372989666337</v>
+        <v>-0.149147487242211</v>
       </c>
       <c r="M14">
-        <v>0.0838220254729822</v>
+        <v>0.201589946061855</v>
       </c>
       <c r="N14">
-        <v>-0.949101954143026</v>
+        <v>0.283702541477663</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1814087</v>
@@ -1545,19 +1551,19 @@
         <v>5515091</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1583,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0030807149678649</v>
+        <v>0.004201658010192</v>
       </c>
       <c r="G15">
-        <v>0.0114942528735632</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.793103448275862</v>
+        <v>0.831325301204819</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K15">
-        <v>-0.149710669077758</v>
+        <v>-0.117856076759062</v>
       </c>
       <c r="L15">
-        <v>-0.235852105265886</v>
+        <v>-0.206253654805316</v>
       </c>
       <c r="M15">
-        <v>-0.0663055885793097</v>
+        <v>-0.0516272813334943</v>
       </c>
       <c r="N15">
-        <v>-6.23794454490657</v>
+        <v>-5.12417725039399</v>
       </c>
       <c r="O15" t="s">
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15">
         <v>1814087</v>
@@ -1616,19 +1622,19 @@
         <v>5515091</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,13 +1654,13 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.087140198194679</v>
+        <v>0.203690909492724</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.882352941176471</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1663,22 +1669,22 @@
         <v>11.09</v>
       </c>
       <c r="K16">
-        <v>-0.0279885057471262</v>
+        <v>-0.0133791208791212</v>
       </c>
       <c r="L16">
-        <v>-0.0623260535357811</v>
+        <v>-0.0489158604223756</v>
       </c>
       <c r="M16">
-        <v>0.009995804088098401</v>
+        <v>0.0200686813186811</v>
       </c>
       <c r="N16">
-        <v>-0.252376066250011</v>
+        <v>-0.12064130639424</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>1814087</v>
@@ -1687,19 +1693,19 @@
         <v>5515091</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,13 +1725,13 @@
         <v>43</v>
       </c>
       <c r="F17">
-        <v>0.932551214035797</v>
+        <v>0.910213091695154</v>
       </c>
       <c r="G17">
+        <v>0.100840336134454</v>
+      </c>
+      <c r="H17">
         <v>0.109243697478992</v>
-      </c>
-      <c r="H17">
-        <v>0.117647058823529</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0003069327731092</v>
+        <v>-0.0002498778198598</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1749,7 +1755,7 @@
         <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q17">
         <v>1814087</v>
@@ -1758,19 +1764,19 @@
         <v>5515091</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,28 +1796,28 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.48955323895127</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.571428571428571</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-2.43398185015236</v>
+        <v>-2.57318982387476</v>
       </c>
       <c r="M18">
-        <v>4.19502732844557</v>
+        <v>3.51142719368562</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1820,7 +1826,7 @@
         <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1814087</v>
@@ -1829,19 +1835,19 @@
         <v>5515091</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,13 +1867,13 @@
         <v>44</v>
       </c>
       <c r="F19">
-        <v>0.912505343477433</v>
+        <v>0.381112258652388</v>
       </c>
       <c r="G19">
-        <v>0.928571428571429</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H19">
-        <v>0.107142857142857</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -1891,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1814087</v>
@@ -1900,19 +1906,19 @@
         <v>5515091</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,10 +1938,10 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>0.907792495820013</v>
+        <v>0.997083727331493</v>
       </c>
       <c r="G20">
-        <v>0.512605042016807</v>
+        <v>0.613445378151261</v>
       </c>
       <c r="H20">
         <v>0.100840336134454</v>
@@ -1962,7 +1968,7 @@
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1814087</v>
@@ -1971,19 +1977,19 @@
         <v>5515091</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,13 +2009,13 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.0005178917880118001</v>
+        <v>0.0389369314944316</v>
       </c>
       <c r="G21">
-        <v>0.126050420168067</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="H21">
-        <v>0.65546218487395</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2018,22 +2024,22 @@
         <v>0.049</v>
       </c>
       <c r="K21">
-        <v>0.0025890130861504</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="L21">
-        <v>0.0011378746541221</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0042296631494848</v>
+        <v>0.0029972058631633</v>
       </c>
       <c r="N21">
-        <v>5.28370017581733</v>
+        <v>2.54753302551369</v>
       </c>
       <c r="O21" t="s">
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1814087</v>
@@ -2042,19 +2048,19 @@
         <v>5515091</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,37 +2074,37 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.479135075505421</v>
+        <v>0.783294472686675</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.638655462184874</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.0074540816326535</v>
       </c>
       <c r="L22">
-        <v>-0.0149690856229086</v>
+        <v>-0.0083837819579816</v>
       </c>
       <c r="M22">
-        <v>0.0199392226216898</v>
+        <v>0.025222851964785</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0966806956245598</v>
       </c>
       <c r="O22" t="s">
         <v>45</v>
@@ -2113,16 +2119,16 @@
         <v>5515091</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,16 +2145,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0005308542007464</v>
+        <v>0.009191021592548801</v>
       </c>
       <c r="G23">
         <v>0.0168067226890756</v>
       </c>
       <c r="H23">
-        <v>0.663865546218487</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2157,22 +2163,22 @@
         <v>0.055</v>
       </c>
       <c r="K23">
+        <v>0.0014879820749592</v>
+      </c>
+      <c r="L23">
+        <v>0.0004463556677354</v>
+      </c>
+      <c r="M23">
         <v>0.0030103021978022</v>
       </c>
-      <c r="L23">
-        <v>0.0014864506609248</v>
-      </c>
-      <c r="M23">
-        <v>0.0045527581202641</v>
-      </c>
       <c r="N23">
-        <v>5.47327672327672</v>
+        <v>2.70542195447138</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23">
         <v>1814087</v>
@@ -2181,19 +2187,19 @@
         <v>5515091</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,37 +2213,37 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>0.0230121759028622</v>
+        <v>0.293504993134519</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.403361344537815</v>
+        <v>0.327731092436975</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K24">
-        <v>0.0033234758871701</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.001817674472686</v>
       </c>
       <c r="M24">
-        <v>0.0059975369458128</v>
+        <v>0.0039503959136119</v>
       </c>
       <c r="N24">
-        <v>2.07717242948135</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
@@ -2252,19 +2258,19 @@
         <v>5515091</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.0445315411229505</v>
+        <v>0.14695171680746</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2299,16 +2305,16 @@
         <v>0.014</v>
       </c>
       <c r="K25">
-        <v>0.0002070578231292</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0004700772200772</v>
+        <v>0.0003261383439237</v>
       </c>
       <c r="N25">
-        <v>1.47898445092322</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>45</v>
@@ -2323,19 +2329,19 @@
         <v>5515091</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,43 +2355,43 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.265317840615893</v>
+        <v>0.8996309584707129</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.840336134453782</v>
+        <v>0.8151260504201679</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="K26">
-        <v>0.020013698630137</v>
+        <v>-0.0279777862887782</v>
       </c>
       <c r="L26">
-        <v>-0.01996472802751</v>
+        <v>-0.070904650085951</v>
       </c>
       <c r="M26">
-        <v>0.0516433504026853</v>
+        <v>0.009471143874818001</v>
       </c>
       <c r="N26">
-        <v>1.50478937068699</v>
+        <v>-2.1857645538108</v>
       </c>
       <c r="O26" t="s">
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1814087</v>
@@ -2394,19 +2400,19 @@
         <v>5515091</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,37 +2432,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0006147107184984</v>
+        <v>0.0092027782898084</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.68944099378882</v>
+        <v>0.675</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>4.125</v>
       </c>
       <c r="K27">
-        <v>0.220613128229178</v>
+        <v>0.160323659861242</v>
       </c>
       <c r="L27">
-        <v>0.0893532148527897</v>
+        <v>0.0359213523337392</v>
       </c>
       <c r="M27">
-        <v>0.345382451848627</v>
+        <v>0.249967514312271</v>
       </c>
       <c r="N27">
-        <v>5.51532820572945</v>
+        <v>3.88663417845435</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1814087</v>
@@ -2465,19 +2471,19 @@
         <v>5515091</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,13 +2503,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>8.73742910245667E-08</v>
+        <v>1.97173219973479E-08</v>
       </c>
       <c r="G28">
-        <v>0.0142857142857143</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="H28">
-        <v>0.678571428571429</v>
+        <v>0.67910447761194</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2512,22 +2518,22 @@
         <v>2.7</v>
       </c>
       <c r="K28">
-        <v>-0.172153050595238</v>
+        <v>-0.164234192037471</v>
       </c>
       <c r="L28">
-        <v>-0.221849418899509</v>
+        <v>-0.210929202770583</v>
       </c>
       <c r="M28">
-        <v>-0.119057866840396</v>
+        <v>-0.116839891278334</v>
       </c>
       <c r="N28">
-        <v>-6.37603891093474</v>
+        <v>-6.08274785323966</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1814087</v>
@@ -2536,19 +2542,19 @@
         <v>5515091</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,13 +2574,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.134964247034332</v>
+        <v>0.07029211494830501</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.820224719101124</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2583,16 +2589,16 @@
         <v>11.115</v>
       </c>
       <c r="K29">
-        <v>-0.0177591521468493</v>
+        <v>-0.0183889238514789</v>
       </c>
       <c r="L29">
-        <v>-0.0370808505439299</v>
+        <v>-0.0399462730351956</v>
       </c>
       <c r="M29">
-        <v>0.0099944316624346</v>
+        <v>0.0034011013343942</v>
       </c>
       <c r="N29">
-        <v>-0.159776447564996</v>
+        <v>-0.165442409819873</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
@@ -2607,19 +2613,19 @@
         <v>5515091</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,10 +2645,10 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <v>0.0567700328813669</v>
+        <v>0.0930921391364449</v>
       </c>
       <c r="G30">
-        <v>0.191011235955056</v>
+        <v>0.179775280898876</v>
       </c>
       <c r="H30">
         <v>0.0786516853932584</v>
@@ -2660,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0001704061668639</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2669,7 +2675,7 @@
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q30">
         <v>1814087</v>
@@ -2678,19 +2684,19 @@
         <v>5515091</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,40 +2713,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.528951445563981</v>
+        <v>0.413728454749607</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.595505617977528</v>
+        <v>0.629213483146067</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>74.5</v>
+        <v>75.8</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.0726800323653687</v>
       </c>
       <c r="L31">
-        <v>-1.86506808856772</v>
+        <v>-1.39727948587134</v>
       </c>
       <c r="M31">
-        <v>1.99154852780807</v>
+        <v>2.3145054491243</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.0958839477115682</v>
       </c>
       <c r="O31" t="s">
         <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1814087</v>
@@ -2749,19 +2755,19 @@
         <v>5515091</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,13 +2787,13 @@
         <v>44</v>
       </c>
       <c r="F32">
-        <v>0.926608930218729</v>
+        <v>0.972715529426586</v>
       </c>
       <c r="G32">
-        <v>0.905882352941176</v>
+        <v>0.9</v>
       </c>
       <c r="H32">
-        <v>0.117647058823529</v>
+        <v>0.123529411764706</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -2811,7 +2817,7 @@
         <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1814087</v>
@@ -2820,19 +2826,19 @@
         <v>5515091</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,13 +2858,13 @@
         <v>43</v>
       </c>
       <c r="F33">
-        <v>0.502921589832579</v>
+        <v>0.87774010856803</v>
       </c>
       <c r="G33">
-        <v>0.568047337278107</v>
+        <v>0.589887640449438</v>
       </c>
       <c r="H33">
-        <v>0.0769230769230769</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2882,7 +2888,7 @@
         <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1814087</v>
@@ -2891,19 +2897,19 @@
         <v>5515091</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,16 +2926,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>0.201483913580963</v>
+        <v>0.5058293089859049</v>
       </c>
       <c r="G34">
-        <v>0.106508875739645</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="H34">
-        <v>0.6213017751479289</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2938,22 +2944,22 @@
         <v>0.052</v>
       </c>
       <c r="K34">
-        <v>0.0003664830448779</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0002493320732368</v>
+        <v>-0.0009891008414302</v>
       </c>
       <c r="M34">
-        <v>0.0014923109238866</v>
+        <v>0.0007450872700167</v>
       </c>
       <c r="N34">
-        <v>0.704775086303812</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1814087</v>
@@ -2962,19 +2968,19 @@
         <v>5515091</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,43 +2994,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.999610098498792</v>
+        <v>0.941166809943572</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.598870056497175</v>
+        <v>0.570621468926554</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.65</v>
+        <v>7.68</v>
       </c>
       <c r="K35">
-        <v>0.0223706606176303</v>
+        <v>0.0111492673992675</v>
       </c>
       <c r="L35">
-        <v>0.0115069955986026</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0326929142836099</v>
+        <v>0.0232049198619962</v>
       </c>
       <c r="N35">
-        <v>0.292426936178174</v>
+        <v>0.145172752594628</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q35">
         <v>1814087</v>
@@ -3033,16 +3039,16 @@
         <v>5515091</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3059,40 +3065,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>0.569186720939443</v>
+        <v>0.53473440105334</v>
       </c>
       <c r="G36">
         <v>0.0112359550561798</v>
       </c>
       <c r="H36">
-        <v>0.707865168539326</v>
+        <v>0.679775280898876</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>0.065</v>
+        <v>0.0615</v>
       </c>
       <c r="K36">
-        <v>-8.32849456730611E-05</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0014403750858379</v>
+        <v>-0.001287317487461</v>
       </c>
       <c r="M36">
-        <v>0.0008547095867177</v>
+        <v>0.0007507071155057</v>
       </c>
       <c r="N36">
-        <v>-0.128130685650863</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1814087</v>
@@ -3101,19 +3107,19 @@
         <v>5515091</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,43 +3133,43 @@
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>0.652891604083369</v>
+        <v>0.815053045362638</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.393258426966292</v>
+        <v>0.387640449438202</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.168</v>
+        <v>0.17</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-0.0007582520240812999</v>
       </c>
       <c r="L37">
-        <v>-0.0023033818633573</v>
+        <v>-0.0028147021524886</v>
       </c>
       <c r="M37">
-        <v>0.001333503135865</v>
+        <v>0.0004793030486582</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-0.446030602400811</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q37">
         <v>1814087</v>
@@ -3172,19 +3178,19 @@
         <v>5515091</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,7 +3210,7 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.0164031491351788</v>
+        <v>0.0746176359461807</v>
       </c>
       <c r="G38">
         <v>0.0168539325842697</v>
@@ -3219,22 +3225,22 @@
         <v>0.014</v>
       </c>
       <c r="K38">
-        <v>0.0001914809960681</v>
+        <v>0.0001078069657615</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.0003654736906847</v>
+        <v>0.0002760770975056</v>
       </c>
       <c r="N38">
-        <v>1.3677214004868</v>
+        <v>0.770049755439365</v>
       </c>
       <c r="O38" t="s">
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q38">
         <v>1814087</v>
@@ -3243,19 +3249,19 @@
         <v>5515091</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,37 +3281,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.290646366637833</v>
+        <v>0.752394248076952</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.814606741573034</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.325</v>
+        <v>1.31</v>
       </c>
       <c r="K39">
-        <v>0.0060090706707086</v>
+        <v>-0.009995894909688</v>
       </c>
       <c r="L39">
-        <v>-0.0127967960507469</v>
+        <v>-0.0238513495362934</v>
       </c>
       <c r="M39">
-        <v>0.0297409623644199</v>
+        <v>0.0122699221109676</v>
       </c>
       <c r="N39">
-        <v>0.45351476760065</v>
+        <v>-0.763045412953283</v>
       </c>
       <c r="O39" t="s">
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1814087</v>
@@ -3314,19 +3320,19 @@
         <v>5515091</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3334,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -3343,40 +3349,40 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.663843186239484</v>
+        <v>0.0014875906103499</v>
       </c>
       <c r="G40">
-        <v>0.182692307692308</v>
+        <v>0.0173410404624277</v>
       </c>
       <c r="H40">
-        <v>0.08653846153846149</v>
+        <v>0.6300578034682081</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>0.007</v>
+        <v>2.56</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-0.0710620033789517</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-0.10724167919844</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-0.0300544140395241</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>-2.7758595069903</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q40">
         <v>1814087</v>
@@ -3385,19 +3391,19 @@
         <v>5515091</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3405,7 +3411,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -3417,37 +3423,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.914718276685987</v>
+        <v>0.147217393479268</v>
       </c>
       <c r="G41">
-        <v>0.0048309178743961</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.584541062801932</v>
+        <v>0.824742268041237</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>80</v>
+        <v>11.105</v>
       </c>
       <c r="K41">
-        <v>-1.45103464156598</v>
+        <v>-0.0133791208791206</v>
       </c>
       <c r="L41">
-        <v>-2.90233332658803</v>
+        <v>-0.0336873664309578</v>
       </c>
       <c r="M41">
-        <v>0.248136268938273</v>
+        <v>0.0099690239575913</v>
       </c>
       <c r="N41">
-        <v>-1.81379330195747</v>
+        <v>-0.120478351005138</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q41">
         <v>1814087</v>
@@ -3456,16 +3462,16 @@
         <v>5515091</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W41" t="s">
         <v>67</v>
@@ -3476,7 +3482,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3485,22 +3491,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>0.917947588848154</v>
+        <v>0.7606962513923829</v>
       </c>
       <c r="G42">
-        <v>0.9035532994923861</v>
+        <v>0.177272727272727</v>
       </c>
       <c r="H42">
-        <v>0.131979695431472</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3527,19 +3533,19 @@
         <v>5515091</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3559,37 +3565,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.889669454393755</v>
+        <v>0.859970800689938</v>
       </c>
       <c r="G43">
-        <v>0.0144230769230769</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="H43">
-        <v>0.653846153846154</v>
+        <v>0.6301369863013701</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0.06675</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>-0.000600904853304</v>
+        <v>-1.11954022988506</v>
       </c>
       <c r="L43">
-        <v>-0.0017477917398598</v>
+        <v>-2.46565836754613</v>
       </c>
       <c r="M43">
-        <v>0.000227429747719</v>
+        <v>0.50234960799926</v>
       </c>
       <c r="N43">
-        <v>-0.900231989968667</v>
+        <v>-1.38214843195686</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q43">
         <v>1814087</v>
@@ -3598,19 +3604,19 @@
         <v>5515091</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W43" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3618,49 +3624,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F44">
-        <v>0.100110738129019</v>
+        <v>0.902742723526454</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.9043062200956939</v>
       </c>
       <c r="H44">
-        <v>0.778846153846154</v>
+        <v>0.129186602870813</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J44">
-        <v>1.295</v>
+        <v>0.005</v>
       </c>
       <c r="K44">
-        <v>0.012901295133438</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>-0.0041234499171085</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.0285929900895894</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>0.996239006443089</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
         <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q44">
         <v>1814087</v>
@@ -3669,16 +3675,16 @@
         <v>5515091</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W44" t="s">
         <v>68</v>
@@ -3689,49 +3695,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>0.59675202974633</v>
+        <v>0.765531241825596</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.551219512195122</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.57</v>
+        <v>0.055</v>
       </c>
       <c r="K45">
-        <v>0.0086406822344322</v>
+        <v>-0.0001783795663215</v>
       </c>
       <c r="L45">
-        <v>-0.0300424677764143</v>
+        <v>-0.0011398422880442</v>
       </c>
       <c r="M45">
-        <v>0.0268311117826919</v>
+        <v>0.0002274611259051</v>
       </c>
       <c r="N45">
-        <v>1.51590916393548</v>
+        <v>-0.324326484220995</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1814087</v>
@@ -3740,16 +3746,19 @@
         <v>5515091</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="W45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3757,49 +3766,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.889664319040077</v>
+        <v>0.998636227353884</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.574257425742574</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>123</v>
+        <v>7.655</v>
       </c>
       <c r="K46">
-        <v>2.09835741750116</v>
+        <v>0.0176227186910007</v>
       </c>
       <c r="L46">
-        <v>-5.3005245521036</v>
+        <v>0.008313138679462101</v>
       </c>
       <c r="M46">
-        <v>5.02689440627225</v>
+        <v>0.0270707581907223</v>
       </c>
       <c r="N46">
-        <v>1.70598164024485</v>
+        <v>0.230211870555201</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q46">
         <v>1814087</v>
@@ -3808,16 +3817,16 @@
         <v>5515091</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3825,49 +3834,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.768783636774762</v>
+        <v>0.955709497455687</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.6454545454545459</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>6.023</v>
+        <v>0.0653</v>
       </c>
       <c r="K47">
-        <v>0.252661987155111</v>
+        <v>-0.0007850234466588</v>
       </c>
       <c r="L47">
-        <v>-0.812275448935208</v>
+        <v>-0.0018307880311418</v>
       </c>
       <c r="M47">
-        <v>1.10409606466574</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>4.19495246812403</v>
+        <v>-1.20217985705797</v>
       </c>
       <c r="O47" t="s">
         <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q47">
         <v>1814087</v>
@@ -3876,16 +3885,19 @@
         <v>5515091</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V47" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="W47" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3893,49 +3905,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.463098922635531</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.346153846153846</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.5715</v>
+        <v>0.168</v>
       </c>
       <c r="K48">
-        <v>-0.0003299457994579</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>-0.0113376902670436</v>
+        <v>-0.0012468888805201</v>
       </c>
       <c r="M48">
-        <v>0.017169189177875</v>
+        <v>0.0013690550306716</v>
       </c>
       <c r="N48">
-        <v>-0.0577332982428687</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
         <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q48">
         <v>1814087</v>
@@ -3944,27 +3956,30 @@
         <v>5515091</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3973,37 +3988,37 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.911016287015968</v>
+        <v>0.0412232345173042</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0144230769230769</v>
       </c>
       <c r="H49">
-        <v>0.9</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>122</v>
+        <v>0.014</v>
       </c>
       <c r="K49">
-        <v>1.36236105675147</v>
+        <v>0.00010593105467</v>
       </c>
       <c r="L49">
-        <v>-0.452151278077513</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>2.10828343699316</v>
+        <v>0.0002220364741641</v>
       </c>
       <c r="N49">
-        <v>1.11668939077989</v>
+        <v>0.756650390500027</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q49">
         <v>1814087</v>
@@ -4012,66 +4027,69 @@
         <v>5515091</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.946297681834873</v>
+        <v>0.362884346403519</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>5.646</v>
+        <v>1.28</v>
       </c>
       <c r="K50">
-        <v>0.132971198156682</v>
+        <v>0.0022946599289811</v>
       </c>
       <c r="L50">
-        <v>-0.0170063289392205</v>
+        <v>-0.0111963073765755</v>
       </c>
       <c r="M50">
-        <v>0.260837556779276</v>
+        <v>0.0177645190214892</v>
       </c>
       <c r="N50">
-        <v>2.35513988942051</v>
+        <v>0.179270306951652</v>
       </c>
       <c r="O50" t="s">
         <v>45</v>
       </c>
       <c r="P50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q50">
         <v>1814087</v>
@@ -4080,19 +4098,22 @@
         <v>5515091</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="W50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>37</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4109,37 +4130,37 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.689150547815172</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="K51">
-        <v>0.0026331101956745</v>
+        <v>-0.0309811243726649</v>
       </c>
       <c r="L51">
-        <v>-0.0072783421573321</v>
+        <v>-0.0887183029652114</v>
       </c>
       <c r="M51">
-        <v>0.0146553057639351</v>
+        <v>-0.005966418464928</v>
       </c>
       <c r="N51">
-        <v>0.470198249227598</v>
+        <v>-5.4352849776605</v>
       </c>
       <c r="O51" t="s">
         <v>45</v>
       </c>
       <c r="P51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q51">
         <v>1814087</v>
@@ -4148,19 +4169,19 @@
         <v>5515091</v>
       </c>
       <c r="S51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -4168,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4177,37 +4198,37 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.062271140790943</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>123.2</v>
+        <v>123</v>
       </c>
       <c r="K52">
-        <v>-0.760452517527087</v>
+        <v>-2.35834863653923</v>
       </c>
       <c r="L52">
-        <v>-1.63214167406627</v>
+        <v>-7.77876687774091</v>
       </c>
       <c r="M52">
-        <v>0.0028511676554901</v>
+        <v>1.70640224683071</v>
       </c>
       <c r="N52">
-        <v>-0.617250420070688</v>
+        <v>-1.91735661507254</v>
       </c>
       <c r="O52" t="s">
         <v>45</v>
       </c>
       <c r="P52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q52">
         <v>1814087</v>
@@ -4216,19 +4237,19 @@
         <v>5515091</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -4236,7 +4257,7 @@
         <v>39</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4245,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.778289298567959</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4257,25 +4278,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.72</v>
+        <v>6.023</v>
       </c>
       <c r="K53">
-        <v>0.0373976109215018</v>
+        <v>-0.47399141591608</v>
       </c>
       <c r="L53">
-        <v>-0.0772726299842758</v>
+        <v>-1.23996252718552</v>
       </c>
       <c r="M53">
-        <v>0.115244113375894</v>
+        <v>0.10350890767128</v>
       </c>
       <c r="N53">
-        <v>0.653804386739542</v>
+        <v>-7.8696897877483</v>
       </c>
       <c r="O53" t="s">
         <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q53">
         <v>1814087</v>
@@ -4284,16 +4305,424 @@
         <v>5515091</v>
       </c>
       <c r="S53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V53" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K54">
+        <v>-0.0033243965176098</v>
+      </c>
+      <c r="L54">
+        <v>-0.0202328748526068</v>
+      </c>
+      <c r="M54">
+        <v>0.017169189177875</v>
+      </c>
+      <c r="N54">
+        <v>-0.593642235287467</v>
+      </c>
+      <c r="O54" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54">
+        <v>1814087</v>
+      </c>
+      <c r="R54">
+        <v>5515091</v>
+      </c>
+      <c r="S54" t="s">
+        <v>62</v>
+      </c>
+      <c r="T54" t="s">
+        <v>63</v>
+      </c>
+      <c r="U54" t="s">
+        <v>64</v>
+      </c>
+      <c r="V54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>0.838381838337615</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>121</v>
+      </c>
+      <c r="K55">
+        <v>1.47080536912752</v>
+      </c>
+      <c r="L55">
+        <v>-0.940626095287405</v>
+      </c>
+      <c r="M55">
+        <v>2.33749708730578</v>
+      </c>
+      <c r="N55">
+        <v>1.21554162737811</v>
+      </c>
+      <c r="O55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <v>1814087</v>
+      </c>
+      <c r="R55">
+        <v>5515091</v>
+      </c>
+      <c r="S55" t="s">
+        <v>62</v>
+      </c>
+      <c r="T55" t="s">
+        <v>63</v>
+      </c>
+      <c r="U55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.601</v>
+      </c>
+      <c r="K56">
+        <v>0.11422808908046</v>
+      </c>
+      <c r="L56">
+        <v>-0.109498004854768</v>
+      </c>
+      <c r="M56">
+        <v>0.260590313409001</v>
+      </c>
+      <c r="N56">
+        <v>2.0394231223078</v>
+      </c>
+      <c r="O56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56">
+        <v>1814087</v>
+      </c>
+      <c r="R56">
+        <v>5515091</v>
+      </c>
+      <c r="S56" t="s">
+        <v>62</v>
+      </c>
+      <c r="T56" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" t="s">
+        <v>64</v>
+      </c>
+      <c r="V56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.55</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>-0.0101829366762536</v>
+      </c>
+      <c r="M57">
+        <v>0.0108389248284773</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57">
+        <v>1814087</v>
+      </c>
+      <c r="R57">
+        <v>5515091</v>
+      </c>
+      <c r="S57" t="s">
+        <v>62</v>
+      </c>
+      <c r="T57" t="s">
+        <v>63</v>
+      </c>
+      <c r="U57" t="s">
+        <v>64</v>
+      </c>
+      <c r="V57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.075374860976662</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>123</v>
+      </c>
+      <c r="K58">
+        <v>-0.8693450342465761</v>
+      </c>
+      <c r="L58">
+        <v>-1.5938419140398</v>
+      </c>
+      <c r="M58">
+        <v>0.0326110348656978</v>
+      </c>
+      <c r="N58">
+        <v>-0.706784580688273</v>
+      </c>
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58">
+        <v>1814087</v>
+      </c>
+      <c r="R58">
+        <v>5515091</v>
+      </c>
+      <c r="S58" t="s">
+        <v>62</v>
+      </c>
+      <c r="T58" t="s">
+        <v>63</v>
+      </c>
+      <c r="U58" t="s">
+        <v>64</v>
+      </c>
+      <c r="V58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.539420674887488</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.64</v>
+      </c>
+      <c r="K59">
+        <v>0.0061190222357599</v>
+      </c>
+      <c r="L59">
+        <v>-0.106975648761039</v>
+      </c>
+      <c r="M59">
+        <v>0.08722813669993069</v>
+      </c>
+      <c r="N59">
+        <v>0.108493302052481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>1814087</v>
+      </c>
+      <c r="R59">
+        <v>5515091</v>
+      </c>
+      <c r="S59" t="s">
+        <v>62</v>
+      </c>
+      <c r="T59" t="s">
+        <v>63</v>
+      </c>
+      <c r="U59" t="s">
+        <v>64</v>
+      </c>
+      <c r="V59" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
